--- a/Objects/IMS Shift Transaction/object_schema_ims_shift_transaction.xlsx
+++ b/Objects/IMS Shift Transaction/object_schema_ims_shift_transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Type</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Format</t>
   </si>
   <si>
-    <t>IMST-{000000000}</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>IMS - Shift Transaction Layout</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
     <t>Custom Field</t>
   </si>
   <si>
@@ -135,18 +129,9 @@
     <t>Picklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Pages </t>
-  </si>
-  <si>
     <t>ims_shift_issuer</t>
   </si>
   <si>
-    <t>List View</t>
-  </si>
-  <si>
-    <t>Items Issued</t>
-  </si>
-  <si>
     <t>Profiles</t>
   </si>
   <si>
@@ -165,10 +150,16 @@
     <t>ims_shift_returner</t>
   </si>
   <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>Utilities Lightning App</t>
+    <t>Visualforce Page</t>
+  </si>
+  <si>
+    <t>IMS_Shift_Item_Returner</t>
+  </si>
+  <si>
+    <t>Issued Location</t>
+  </si>
+  <si>
+    <t>Lookup(Location Data)</t>
   </si>
 </sst>
 </file>
@@ -1734,8 +1725,8 @@
     <dgm:cxn modelId="{3912C855-D3C1-4974-A312-09DF4FE2FA2D}" srcId="{B58297DA-C250-4934-89EA-5D36F4912732}" destId="{41C586A7-B4BA-4B23-A57C-AED15E46D256}" srcOrd="2" destOrd="0" parTransId="{7BF328C9-0DDA-49E1-8C67-4CF43C772152}" sibTransId="{BB8BFC2E-30AC-4455-B50D-C2B7450DF2CD}"/>
     <dgm:cxn modelId="{37607A4B-9DB9-48F8-A83B-433878BC5190}" type="presOf" srcId="{89B69B7F-53A8-406F-A896-7D1C9EE9ED57}" destId="{21D9C299-F69C-4F62-89F1-F6641C9F765D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/lProcess1"/>
     <dgm:cxn modelId="{C4D901B3-75E9-4C55-9679-B845B3EB8484}" srcId="{44FAD01A-C188-496C-88ED-EB3A80C701EF}" destId="{68FAE898-CCA2-4A98-B418-8653E51626DC}" srcOrd="1" destOrd="0" parTransId="{337DE8EB-5F09-477D-B624-8A37B81E076E}" sibTransId="{4B662085-657B-449F-BBDA-694E7808D448}"/>
+    <dgm:cxn modelId="{577E066F-0805-4540-BEBA-28D0CAA02BD2}" type="presOf" srcId="{AAD43B63-EC2A-4886-815A-3043A3AAB7D0}" destId="{487B6A4F-2E99-45FE-92C2-5F97E9E5988C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/lProcess1"/>
     <dgm:cxn modelId="{818D2FA8-1615-4880-957E-76AB2B71494F}" srcId="{41C586A7-B4BA-4B23-A57C-AED15E46D256}" destId="{4248F8B3-3899-41F6-AF86-4E0F706F7475}" srcOrd="0" destOrd="0" parTransId="{ECD0C507-EFF2-47F5-B319-347D72632464}" sibTransId="{5C232EE0-497D-402E-B88F-B2BB6D980753}"/>
-    <dgm:cxn modelId="{577E066F-0805-4540-BEBA-28D0CAA02BD2}" type="presOf" srcId="{AAD43B63-EC2A-4886-815A-3043A3AAB7D0}" destId="{487B6A4F-2E99-45FE-92C2-5F97E9E5988C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/lProcess1"/>
     <dgm:cxn modelId="{4B6184D7-44D3-4DDD-B389-AEEF536730BC}" type="presOf" srcId="{1AC11295-3F46-4FF3-8D9D-5013B46288A7}" destId="{8A65EAE1-3104-453D-88C9-20DE387738C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/lProcess1"/>
     <dgm:cxn modelId="{409B9367-010D-4A4A-A5A7-E7109DAACBA6}" type="presParOf" srcId="{F5EB1C28-72FD-4535-8BC7-24FA080AC68E}" destId="{A9B8867D-E1F7-4FFE-B1E5-2A04D9CD74B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/lProcess1"/>
     <dgm:cxn modelId="{51A37317-1084-4A98-8BEA-FC04F824BCF2}" type="presParOf" srcId="{A9B8867D-E1F7-4FFE-B1E5-2A04D9CD74B3}" destId="{1021E898-AA59-48B3-AAB6-887767E611E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/lProcess1"/>
@@ -3398,10 +3389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,237 +3421,226 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
+      <c r="C21" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3678,12 +3658,12 @@
   <sheetData>
     <row r="17" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3707,12 +3687,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
